--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Hcrt</t>
+  </si>
+  <si>
+    <t>Hcrtr1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Hcrt</t>
-  </si>
-  <si>
-    <t>Hcrtr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,232 +531,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4093176666666666</v>
+        <v>0.4093176666666667</v>
       </c>
       <c r="H2">
         <v>1.227953</v>
       </c>
       <c r="I2">
-        <v>0.6885711321765121</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.688571132176512</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2329706666666667</v>
+        <v>0.438129</v>
       </c>
       <c r="N2">
-        <v>0.698912</v>
+        <v>1.314387</v>
       </c>
       <c r="O2">
-        <v>0.5833668595887038</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5833668595887038</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.09535900968177777</v>
+        <v>0.179333939979</v>
       </c>
       <c r="R2">
-        <v>0.8582310871359998</v>
+        <v>1.614005459811</v>
       </c>
       <c r="S2">
-        <v>0.4016895789812502</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.4016895789812501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G3">
-        <v>0.4093176666666666</v>
-      </c>
-      <c r="H3">
-        <v>1.227953</v>
-      </c>
-      <c r="I3">
-        <v>0.6885711321765121</v>
-      </c>
-      <c r="J3">
-        <v>0.688571132176512</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M3">
-        <v>0.1663846666666667</v>
-      </c>
-      <c r="N3">
-        <v>0.499154</v>
-      </c>
-      <c r="O3">
-        <v>0.4166331404112962</v>
-      </c>
-      <c r="P3">
-        <v>0.4166331404112962</v>
-      </c>
-      <c r="Q3">
-        <v>0.0681041835291111</v>
-      </c>
-      <c r="R3">
-        <v>0.6129376517619999</v>
-      </c>
-      <c r="S3">
-        <v>0.286881553195262</v>
-      </c>
-      <c r="T3">
-        <v>0.2868815531952619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.1851273333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.5553819999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.3114288678234881</v>
-      </c>
-      <c r="J4">
-        <v>0.3114288678234881</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.2329706666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.698912</v>
-      </c>
-      <c r="O4">
-        <v>0.5833668595887038</v>
-      </c>
-      <c r="P4">
-        <v>0.5833668595887038</v>
-      </c>
-      <c r="Q4">
-        <v>0.04312923826488888</v>
-      </c>
-      <c r="R4">
-        <v>0.388163144384</v>
-      </c>
-      <c r="S4">
-        <v>0.1816772806074538</v>
-      </c>
-      <c r="T4">
-        <v>0.1816772806074538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1851273333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.5553819999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.3114288678234881</v>
-      </c>
-      <c r="J5">
-        <v>0.3114288678234881</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.1663846666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.499154</v>
-      </c>
-      <c r="O5">
-        <v>0.4166331404112962</v>
-      </c>
-      <c r="P5">
-        <v>0.4166331404112962</v>
-      </c>
-      <c r="Q5">
-        <v>0.03080234964755555</v>
-      </c>
-      <c r="R5">
-        <v>0.277221146828</v>
-      </c>
-      <c r="S5">
-        <v>0.1297515872160343</v>
-      </c>
-      <c r="T5">
-        <v>0.1297515872160343</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
